--- a/biology/Neurosciences/Tectum/Tectum.xlsx
+++ b/biology/Neurosciences/Tectum/Tectum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tectum (latin : toit) est une région du cerveau, plus spécifiquement la partie dorsale (supérieure) du mésencéphale. La position du tectum contraste avec le tegmentum, qui désigne la région ventrale (inférieure) du système ventriculaire. Le tectum est responsable des réflexes auditifs et visuels.
 Le tectum optique jaillit à travers la formation réticulée et interagit avec les neurones moteurs du tronc cérébral. Ces connexions sont importantes pour la reconnaissance et la réaction à des objets de tailles variées, facilitées par les émetteurs de nerf optique excitateurs tels que le L-glutamate. Des études récentes sur les lésions suggèrent que le tectum n’a pas d’influence sur les réponses de mouvement d’ordre supérieur comme des réponses optomotrices ou optocinétiques, mais pourrait faire partie intégrante des signaux de niveau inférieur dans la perception du mouvement, comme dans l’identification de petits objets.
